--- a/Documents/BaoCao/Part_Writter_Note.xlsx
+++ b/Documents/BaoCao/Part_Writter_Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KLTN-WeatherForecast\Documents\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F08630-07D5-4CD4-895C-AB88B56E30A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF86D12-4BAE-4294-B358-0F518E395B1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5FE9411F-E9DE-4E61-AFA8-2FF06EEE7498}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>Problem Statement</t>
-  </si>
-  <si>
     <t>1.1 Background</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Thao</t>
+  </si>
+  <si>
+    <t>Acknowledgement</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -497,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -535,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -544,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -553,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3"/>
     </row>

--- a/Documents/BaoCao/Part_Writter_Note.xlsx
+++ b/Documents/BaoCao/Part_Writter_Note.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KLTN-WeatherForecast\Documents\BaoCao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ktln\Documents\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF86D12-4BAE-4294-B358-0F518E395B1A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5FE9411F-E9DE-4E61-AFA8-2FF06EEE7498}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Part</t>
   </si>
@@ -64,17 +63,20 @@
   </si>
   <si>
     <t>Acknowledgement</t>
+  </si>
+  <si>
+    <t>Hao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -455,19 +457,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CB0E9C-6CA0-4F75-A013-772458DD64CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.125" style="2"/>
     <col min="2" max="2" width="58" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,7 +548,9 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -555,7 +559,9 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">

--- a/Documents/BaoCao/Part_Writter_Note.xlsx
+++ b/Documents/BaoCao/Part_Writter_Note.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Part</t>
   </si>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,9 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -521,7 +523,9 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">

--- a/Documents/BaoCao/Part_Writter_Note.xlsx
+++ b/Documents/BaoCao/Part_Writter_Note.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ktln\Documents\BaoCao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KLTN-WeatherForecast\Documents\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E83C7-65E9-496A-9AFA-D464BF2AF95E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Part</t>
   </si>
@@ -71,12 +72,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -457,19 +458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="58" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.125" style="1"/>
+    <col min="3" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,7 +535,9 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -543,7 +546,9 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -574,7 +579,9 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/BaoCao/Part_Writter_Note.xlsx
+++ b/Documents/BaoCao/Part_Writter_Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KLTN-WeatherForecast\Documents\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E83C7-65E9-496A-9AFA-D464BF2AF95E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59341A30-EB2A-40CD-A159-9D286E76259A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Documents/BaoCao/Part_Writter_Note.xlsx
+++ b/Documents/BaoCao/Part_Writter_Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KLTN-WeatherForecast\Documents\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59341A30-EB2A-40CD-A159-9D286E76259A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C4F749-B39A-40A8-9F79-0111AE53DB35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Part</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Hao</t>
+  </si>
+  <si>
+    <t>Future work</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -583,6 +586,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/BaoCao/Part_Writter_Note.xlsx
+++ b/Documents/BaoCao/Part_Writter_Note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KLTN-WeatherForecast\Documents\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C4F749-B39A-40A8-9F79-0111AE53DB35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCDD60B-839C-47D8-A1CA-0E969D0DAADD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
